--- a/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53249BF2-E470-49AC-AAF8-C178C1E73B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92104B8-ED4B-4218-B9B5-EC0254313998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1555BE00-6030-4EDC-AE7A-550BCEC058FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59F32AF9-75D0-4412-B2BA-E9CF8588BE37}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
-  <si>
-    <t>Población según el número de piezas de fruta que consume al día en 2023 (Tasa respuesta: 99,86%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+  <si>
+    <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
@@ -104,403 +104,406 @@
     <t>15,6%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Diariamente aunque menos de tres veces al día</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>Tres o más al día</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>Diariamente aunque menos de tres veces al día</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>Tres o más al día</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>57,11%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>21,59%</t>
+    <t>18,12%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0905D4-D51A-498A-B594-00C9BEE2B0B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB3EBAD-197F-4ED9-838E-437EF66CDE60}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,13 +1586,13 @@
         <v>69910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1607,13 @@
         <v>116621</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>139</v>
@@ -1619,13 +1622,13 @@
         <v>104804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>254</v>
@@ -1634,13 +1637,13 @@
         <v>221426</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1658,13 @@
         <v>386786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>588</v>
@@ -1670,13 +1673,13 @@
         <v>412177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>985</v>
@@ -1685,13 +1688,13 @@
         <v>798964</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1709,13 @@
         <v>142898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -1721,13 +1724,13 @@
         <v>153728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>371</v>
@@ -1736,13 +1739,13 @@
         <v>296626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1813,13 @@
         <v>202382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
@@ -1825,13 +1828,13 @@
         <v>301532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
@@ -1840,13 +1843,13 @@
         <v>503914</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,10 +1864,10 @@
         <v>600389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>134</v>
@@ -1891,13 +1894,13 @@
         <v>1159658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,10 +1984,10 @@
         <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>1820</v>
@@ -1996,10 +1999,10 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92104B8-ED4B-4218-B9B5-EC0254313998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA20FCF6-7CE6-4F8F-B36B-89215EBDE815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59F32AF9-75D0-4412-B2BA-E9CF8588BE37}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68D15F5B-A5E5-439E-9FFE-841FA7C91403}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -71,439 +71,436 @@
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>Diariamente aunque menos de tres veces al día</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>Tres o más al día</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>Diariamente aunque menos de tres veces al día</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>Tres o más al día</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>14,01%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB3EBAD-197F-4ED9-838E-437EF66CDE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C715FD3-BECA-45BE-A20C-283DAE5FFFB3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>29093</v>
+        <v>28559</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1054,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>31640</v>
+        <v>29375</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1069,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>60734</v>
+        <v>57934</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1090,7 +1087,7 @@
         <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>84515</v>
+        <v>83763</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1105,7 +1102,7 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>118806</v>
+        <v>111124</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1120,118 +1117,118 @@
         <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>203321</v>
+        <v>194886</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>412</v>
       </c>
       <c r="D6" s="7">
-        <v>323668</v>
+        <v>303581</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>882</v>
       </c>
       <c r="I6" s="7">
-        <v>513588</v>
+        <v>461334</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
       </c>
       <c r="N6" s="7">
-        <v>837256</v>
+        <v>764914</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>104357</v>
+        <v>99036</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>170312</v>
+        <v>152188</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
       </c>
       <c r="N7" s="7">
-        <v>274669</v>
+        <v>251224</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,51 +1240,51 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1424</v>
       </c>
       <c r="I8" s="7">
-        <v>834346</v>
+        <v>754021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2115</v>
       </c>
       <c r="N8" s="7">
-        <v>1375980</v>
+        <v>1268959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1296,46 +1293,46 @@
         <v>120</v>
       </c>
       <c r="D9" s="7">
-        <v>146555</v>
+        <v>144349</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>226716</v>
+        <v>315614</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>263</v>
       </c>
       <c r="N9" s="7">
-        <v>373271</v>
+        <v>459963</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,148 +1344,148 @@
         <v>357</v>
       </c>
       <c r="D10" s="7">
-        <v>399252</v>
+        <v>406808</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>443</v>
       </c>
       <c r="I10" s="7">
-        <v>335659</v>
+        <v>317043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>800</v>
       </c>
       <c r="N10" s="7">
-        <v>734911</v>
+        <v>723851</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1121</v>
       </c>
       <c r="D11" s="7">
-        <v>1211936</v>
+        <v>1350944</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>1702</v>
       </c>
       <c r="I11" s="7">
-        <v>1248182</v>
+        <v>1180583</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>2823</v>
       </c>
       <c r="N11" s="7">
-        <v>2460118</v>
+        <v>2531527</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>393</v>
       </c>
       <c r="D12" s="7">
-        <v>403202</v>
+        <v>387196</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>631</v>
       </c>
       <c r="I12" s="7">
-        <v>437768</v>
+        <v>423472</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1024</v>
       </c>
       <c r="N12" s="7">
-        <v>840969</v>
+        <v>810667</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,51 +1497,51 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2919</v>
       </c>
       <c r="I13" s="7">
-        <v>2248325</v>
+        <v>2236711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4910</v>
       </c>
       <c r="N13" s="7">
-        <v>4409270</v>
+        <v>4526009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1553,46 +1550,46 @@
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>26734</v>
+        <v>30843</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>43176</v>
+        <v>40266</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>69910</v>
+        <v>71109</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,148 +1601,148 @@
         <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>116621</v>
+        <v>116683</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>139</v>
       </c>
       <c r="I15" s="7">
-        <v>104804</v>
+        <v>101167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>254</v>
       </c>
       <c r="N15" s="7">
-        <v>221426</v>
+        <v>217850</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>397</v>
       </c>
       <c r="D16" s="7">
-        <v>386786</v>
+        <v>365338</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>588</v>
       </c>
       <c r="I16" s="7">
-        <v>412177</v>
+        <v>378457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>985</v>
       </c>
       <c r="N16" s="7">
-        <v>798964</v>
+        <v>743794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>146</v>
       </c>
       <c r="D17" s="7">
-        <v>142898</v>
+        <v>133760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
       </c>
       <c r="I17" s="7">
-        <v>153728</v>
+        <v>140573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>371</v>
       </c>
       <c r="N17" s="7">
-        <v>296626</v>
+        <v>274333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,46 +1754,46 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,46 +1807,46 @@
         <v>173</v>
       </c>
       <c r="D19" s="7">
-        <v>202382</v>
+        <v>203751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
       </c>
       <c r="I19" s="7">
-        <v>301532</v>
+        <v>385255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
       </c>
       <c r="N19" s="7">
-        <v>503914</v>
+        <v>589006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,148 +1858,148 @@
         <v>584</v>
       </c>
       <c r="D20" s="7">
-        <v>600389</v>
+        <v>607253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>786</v>
       </c>
       <c r="I20" s="7">
-        <v>559269</v>
+        <v>529334</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>1370</v>
       </c>
       <c r="N20" s="7">
-        <v>1159658</v>
+        <v>1136587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1930</v>
       </c>
       <c r="D21" s="7">
-        <v>1922391</v>
+        <v>2019863</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>3172</v>
       </c>
       <c r="I21" s="7">
-        <v>2173948</v>
+        <v>2020373</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>5102</v>
       </c>
       <c r="N21" s="7">
-        <v>4096339</v>
+        <v>4040236</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>676</v>
       </c>
       <c r="D22" s="7">
-        <v>650457</v>
+        <v>619992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>1144</v>
       </c>
       <c r="I22" s="7">
-        <v>761808</v>
+        <v>716233</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>1820</v>
       </c>
       <c r="N22" s="7">
-        <v>1412265</v>
+        <v>1336225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,51 +2011,51 @@
         <v>3363</v>
       </c>
       <c r="D23" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5347</v>
       </c>
       <c r="I23" s="7">
-        <v>3796558</v>
+        <v>3651195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8710</v>
       </c>
       <c r="N23" s="7">
-        <v>7172176</v>
+        <v>7102054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el consumo de fruta en 2023</t>
+          <t>Población según la frecuencia de consumo de fruta o zumos naturales en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
